--- a/data/data_raw/eurostat/AT_pig_population_apro_mt_lspig.xlsx
+++ b/data/data_raw/eurostat/AT_pig_population_apro_mt_lspig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -753,6 +758,7 @@
       <c r="AN2" t="n">
         <v>2516.46</v>
       </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -881,6 +887,7 @@
       <c r="AN3" t="n">
         <v>605.34</v>
       </c>
+      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1005,6 +1012,7 @@
       <c r="AN4" t="n">
         <v>207</v>
       </c>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1129,6 +1137,7 @@
       <c r="AN5" t="n">
         <v>203.54</v>
       </c>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1257,6 +1266,7 @@
       <c r="AN6" t="n">
         <v>144.53</v>
       </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1381,6 +1391,7 @@
       <c r="AN7" t="n">
         <v>20.47</v>
       </c>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1505,6 +1516,7 @@
       <c r="AN8" t="n">
         <v>59.01</v>
       </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1629,6 +1641,7 @@
       <c r="AN9" t="n">
         <v>20.42</v>
       </c>
+      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1753,6 +1766,7 @@
       <c r="AN10" t="n">
         <v>642.28</v>
       </c>
+      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1877,6 +1891,7 @@
       <c r="AN11" t="n">
         <v>1061.83</v>
       </c>
+      <c r="AO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2001,6 +2016,7 @@
       <c r="AN12" t="n">
         <v>505.02</v>
       </c>
+      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2125,6 +2141,7 @@
       <c r="AN13" t="n">
         <v>430.81</v>
       </c>
+      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2249,6 +2266,7 @@
       <c r="AN14" t="n">
         <v>126</v>
       </c>
+      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2377,6 +2395,7 @@
       <c r="AN15" t="n">
         <v>3.46</v>
       </c>
+      <c r="AO15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
